--- a/data/2024/ssg/7,53_DE-7.xlsx
+++ b/data/2024/ssg/7,53_DE-7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="639">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -475,921 +475,924 @@
     <t>1.1986 - 11.1996; 11.1997 -</t>
   </si>
   <si>
+    <t>1a;9</t>
+  </si>
+  <si>
+    <t>570191-0</t>
+  </si>
+  <si>
+    <t>Õpetatud Eesti Seltsi aastaraamat</t>
+  </si>
+  <si>
+    <t>Mattiesen</t>
+  </si>
+  <si>
+    <t>est;ger</t>
+  </si>
+  <si>
+    <t>1406-8486</t>
+  </si>
+  <si>
+    <t>7,53;9,10</t>
+  </si>
+  <si>
+    <t>570200-8</t>
+  </si>
+  <si>
+    <t>1936(1938) - 1938(1940); 1988/93(1995) -</t>
+  </si>
+  <si>
+    <t>1211247-1</t>
+  </si>
+  <si>
+    <t>Estonia in figures</t>
+  </si>
+  <si>
+    <t>Statistical Office of Estonia</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>1406-1880</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>2150066-6</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1993(1994) - 2002</t>
+  </si>
+  <si>
+    <t>1007124-6</t>
+  </si>
+  <si>
+    <t>1.1934 - 16.1935[?]</t>
+  </si>
+  <si>
+    <t>1007976-2</t>
+  </si>
+  <si>
+    <t>Eesti Üliõpilaste Seltsi album</t>
+  </si>
+  <si>
+    <t>Eesti Üliõpilaste Seltsi Vanemategogu Kirjastus</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>1.1889 - 11.[ca.1939]; 12.1955 - 15.1970; 18.2000 -</t>
+  </si>
+  <si>
+    <t>1216242-5</t>
+  </si>
+  <si>
+    <t>Suomalainen valiosarja</t>
+  </si>
+  <si>
+    <t>Porvoo [u.a.]</t>
+  </si>
+  <si>
+    <t>3. Painos 9.1935 nachgewiesen</t>
+  </si>
+  <si>
+    <t>1232197-7</t>
+  </si>
+  <si>
+    <t>Estonica</t>
+  </si>
+  <si>
+    <t>Teaduste Akad. Kirjastus</t>
+  </si>
+  <si>
+    <t>1406-3565</t>
+  </si>
+  <si>
+    <t>440481-6</t>
+  </si>
+  <si>
+    <t>1990(1991) - 1997(1998); damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>251399-7</t>
+  </si>
+  <si>
+    <t>Litteraria</t>
+  </si>
+  <si>
+    <t>Eesti Kirjandusmuuseum</t>
+  </si>
+  <si>
+    <t>0234-7695</t>
+  </si>
+  <si>
+    <t>400;800</t>
+  </si>
+  <si>
+    <t>1.1984 -</t>
+  </si>
+  <si>
+    <t>1035300-8</t>
+  </si>
+  <si>
+    <t>Sõnasõel</t>
+  </si>
+  <si>
+    <t>1.1972 - 7.1986; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>1046525-X</t>
+  </si>
+  <si>
+    <t>Emakeele Seltsi toimetised</t>
+  </si>
+  <si>
+    <t>0233-9439</t>
+  </si>
+  <si>
+    <t>1311696-4</t>
+  </si>
+  <si>
+    <t>1.1958 - 19.1993</t>
+  </si>
+  <si>
+    <t>1067027-0</t>
+  </si>
+  <si>
+    <t>Kreutzwaldi Päevade Konverentsi ettekannete teesid</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 21.1977 - 33.1989</t>
+  </si>
+  <si>
+    <t>1291544-0</t>
+  </si>
+  <si>
+    <t>b;zt</t>
+  </si>
+  <si>
+    <t>Sõnumileht</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>7,53;26</t>
+  </si>
+  <si>
+    <t>2019949-1</t>
+  </si>
+  <si>
+    <t>1283188-8</t>
+  </si>
+  <si>
+    <t>1995,1(30.Okt.) - 2000,150(30.Juni) = Nr. 1-1444</t>
+  </si>
+  <si>
+    <t>2386790-5</t>
+  </si>
+  <si>
+    <t>Rahvakultuuri aastaraamat</t>
+  </si>
+  <si>
+    <t>Rahvakultuuri Arendus- ja Koolituskeskus</t>
+  </si>
+  <si>
+    <t>1736-1877</t>
+  </si>
+  <si>
+    <t>1997(1998) - 2004(2005)[?]</t>
+  </si>
+  <si>
+    <t>SL Õhtuleht</t>
+  </si>
+  <si>
+    <t>1406-1236</t>
+  </si>
+  <si>
+    <t>26;7,53</t>
+  </si>
+  <si>
+    <t>2511104-8</t>
+  </si>
+  <si>
+    <t>1386600-X;1291544-0</t>
+  </si>
+  <si>
+    <t>2000,150(3.Juli) - 2008,233(4.Okt.) = Nr. 16945-19459</t>
+  </si>
+  <si>
+    <t>2021978-7</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Euroinformer</t>
+  </si>
+  <si>
+    <t>1406-3891;1736-0668</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1998/99; 2000/01; 2003/04 -</t>
+  </si>
+  <si>
+    <t>1328641-9</t>
+  </si>
+  <si>
+    <t>Eesti raamatute üldnimestik</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>1918/23(1931) - 1937/39(1941)[?]</t>
+  </si>
+  <si>
+    <t>2042223-4</t>
+  </si>
+  <si>
+    <t>d;rg;mg</t>
+  </si>
+  <si>
+    <t>Tartu Ülikooli Eesti Keele Õppetooli toimetised</t>
+  </si>
+  <si>
+    <t>1406-0183</t>
+  </si>
+  <si>
+    <t>1.1995 -</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Mb 50</t>
+  </si>
+  <si>
+    <t>2416158-5</t>
+  </si>
+  <si>
+    <t>ENDC proceedings</t>
+  </si>
+  <si>
+    <t>University Press</t>
+  </si>
+  <si>
+    <t>1736-0242</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 7.2007 -</t>
+  </si>
+  <si>
+    <t>2417944-9</t>
+  </si>
+  <si>
+    <t>Dissertationes philosophicae Universitatis Tartuensis</t>
+  </si>
+  <si>
+    <t>Tartu Univ. Press</t>
+  </si>
+  <si>
+    <t>1406-9520</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1.2001 -</t>
+  </si>
+  <si>
+    <t>2048168-8</t>
+  </si>
+  <si>
+    <t>Kuldne kaseleht</t>
+  </si>
+  <si>
+    <t>Liit</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1998 -</t>
+  </si>
+  <si>
+    <t>1339382-0</t>
+  </si>
+  <si>
+    <t>Ühistu</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>1.1937; 2.1939; 3.1993 - 4.1996; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>1343789-6</t>
+  </si>
+  <si>
+    <t>Issues in applied linguistics</t>
+  </si>
+  <si>
+    <t>Univ.</t>
+  </si>
+  <si>
+    <t>1024-610X</t>
+  </si>
+  <si>
+    <t>1.1995; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>2057865-9</t>
+  </si>
+  <si>
+    <t>Raamat on ...</t>
+  </si>
+  <si>
+    <t>Tallina Bibliofiilide Klubi</t>
+  </si>
+  <si>
+    <t>1406-9474</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>1.2000 - 4.2005[?]</t>
+  </si>
+  <si>
+    <t>2057988-3</t>
+  </si>
+  <si>
+    <t>Arter</t>
+  </si>
+  <si>
+    <t>2058015-0;2058017-4</t>
+  </si>
+  <si>
+    <t>27. November 1999-</t>
+  </si>
+  <si>
+    <t>Paar sammukest</t>
+  </si>
+  <si>
+    <t>1406-5428</t>
+  </si>
+  <si>
+    <t>13.1996 -</t>
+  </si>
+  <si>
+    <t>2071258-3</t>
+  </si>
+  <si>
+    <t>Acta semiotica Estica</t>
+  </si>
+  <si>
+    <t>Tartu Ülikooli Kirjastus</t>
+  </si>
+  <si>
+    <t>1406-9563</t>
+  </si>
+  <si>
+    <t>1.2001; 2.2005 -</t>
+  </si>
+  <si>
+    <t>2074782-2</t>
+  </si>
+  <si>
+    <t>Oma keel</t>
+  </si>
+  <si>
+    <t>Emakeele Selts</t>
+  </si>
+  <si>
+    <t>1406-6599</t>
+  </si>
+  <si>
+    <t>2000,1(He.) -</t>
+  </si>
+  <si>
+    <t>2452632-0</t>
+  </si>
+  <si>
+    <t>Dissertationes medicinae Universitatis Tartuensis</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>1.1991 -</t>
+  </si>
+  <si>
+    <t>2453799-8</t>
+  </si>
+  <si>
+    <t>d;mg</t>
+  </si>
+  <si>
+    <t>Eesti Rahvusraamatukogu toimetised</t>
+  </si>
+  <si>
+    <t>Eesti Rahvusraamatukogu</t>
+  </si>
+  <si>
+    <t>1406-3530</t>
+  </si>
+  <si>
+    <t>24,1;7,53</t>
+  </si>
+  <si>
+    <t>1.1990 -</t>
+  </si>
+  <si>
+    <t>2080842-2</t>
+  </si>
+  <si>
+    <t>Life in Estonia</t>
+  </si>
+  <si>
+    <t>Ambassador OÜ</t>
+  </si>
+  <si>
+    <t>1406-6793</t>
+  </si>
+  <si>
+    <t>300;330</t>
+  </si>
+  <si>
+    <t>[1.]2001; 2.2002 - 3.2003/04; 2005; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>2086170-9</t>
+  </si>
+  <si>
+    <t>Luulekevad</t>
+  </si>
+  <si>
+    <t>Eesti Luuleliit</t>
+  </si>
+  <si>
+    <t>7,53;FID-FINNUG-DE-7</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 2000 -</t>
+  </si>
+  <si>
+    <t>1385543-8</t>
+  </si>
+  <si>
+    <t>Sirp</t>
+  </si>
+  <si>
+    <t>Kirjastus Perioodika</t>
+  </si>
+  <si>
+    <t>7,44;7,53;26</t>
+  </si>
+  <si>
+    <t>1385535-9</t>
+  </si>
+  <si>
+    <t>50.1991,1(1.Jan.) - 53.1994,5(4.Febr.); 1997,13(4.Apr.) - ; auch mit durchgehender Nr.-Zählung</t>
+  </si>
+  <si>
+    <t>2103576-3</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>Eesti Kirjanike Liit</t>
+  </si>
+  <si>
+    <t>[Erscheinungsort nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 3.2001 -</t>
+  </si>
+  <si>
+    <t>2105447-2</t>
+  </si>
+  <si>
+    <t>Kirjakeele teataja</t>
+  </si>
+  <si>
+    <t>Selts</t>
+  </si>
+  <si>
+    <t>[1.]1976/83(1985); 2.1993/2000(2000) -</t>
+  </si>
+  <si>
+    <t>2498048-1</t>
+  </si>
+  <si>
+    <t>Mõte &amp; mälu</t>
+  </si>
+  <si>
+    <t>Eesti Ekspressi Kirjastus</t>
+  </si>
+  <si>
+    <t>[Tallinn]</t>
+  </si>
+  <si>
+    <t>1.2007 -</t>
+  </si>
+  <si>
+    <t>2119800-7</t>
+  </si>
+  <si>
+    <t>Vihik</t>
+  </si>
+  <si>
+    <t>Bookmill Trükikoda ja Kirjastus</t>
+  </si>
+  <si>
+    <t>1406-751X</t>
+  </si>
+  <si>
+    <t>Nr. 1.2002 -</t>
+  </si>
+  <si>
+    <t>2205031-0</t>
+  </si>
+  <si>
+    <t>Eesti Rakenduslingvistika Ühingu aastaraamat</t>
+  </si>
+  <si>
+    <t>Eesti Keele Sihtasutus</t>
+  </si>
+  <si>
+    <t>1736-2563</t>
+  </si>
+  <si>
+    <t>1.2004(2005) -</t>
+  </si>
+  <si>
+    <t>2124739-0</t>
+  </si>
+  <si>
+    <t>Tartu Ülikooli Lõuna-Eesti keele- ja kultuuriuuringute keskuse aastaraamat</t>
+  </si>
+  <si>
+    <t>Tartu Ülikooli Lõuna-Eesti keele- ja kultuuriuuringute keskus</t>
+  </si>
+  <si>
+    <t>1406-8354</t>
+  </si>
+  <si>
+    <t>1.2000/01(2002) -</t>
+  </si>
+  <si>
+    <t>12;Mb 50</t>
+  </si>
+  <si>
+    <t>2205522-8</t>
+  </si>
+  <si>
+    <t>Eesti Rahva Muuseumi sari</t>
+  </si>
+  <si>
+    <t>1406-4022</t>
+  </si>
+  <si>
+    <t>1.1998 -</t>
+  </si>
+  <si>
+    <t>2205543-5</t>
+  </si>
+  <si>
+    <t>d;rg</t>
+  </si>
+  <si>
+    <t>Collegium litterarum</t>
+  </si>
+  <si>
+    <t>Eesti Teaduste Akad., Underi ja Tuglase Kirjanduskeskus;Tartu Ülikooli Kirjanduse ja Rahvaluule Osakond</t>
+  </si>
+  <si>
+    <t>Tallinn;Tartu</t>
+  </si>
+  <si>
+    <t>1406-7269</t>
+  </si>
+  <si>
+    <t>2205557-5</t>
+  </si>
+  <si>
+    <t>d;ru;mg</t>
+  </si>
+  <si>
+    <t>Eesti mõttelugu</t>
+  </si>
+  <si>
+    <t>Ilmamaa</t>
+  </si>
+  <si>
+    <t>1024-1604</t>
+  </si>
+  <si>
+    <t>2206352-3</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>b;nl</t>
+  </si>
+  <si>
+    <t>Eesti Rakenduslingvistika Ühing (ERÜ)</t>
+  </si>
+  <si>
+    <t>2228-0677</t>
+  </si>
+  <si>
+    <t>1 (2004) ; 1 (2005)-</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2206352;https://www.ceeol.com/search/journal-detail?id=222;https://nl.zugang.nationallizenzen.de/han/3ca6f472-81ae-ddf1-00e9-37a0f7f930d6</t>
+  </si>
+  <si>
+    <t>KF;NL</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>1a;3;8;9;12;18;19;M 347;20;26;28;29;1102;946;84;89;90;861;95;Mh 39;355;898;155;384;Aug 4;37;473;517;521;547;703;705;739;824;573;150;551;552;Lün 4;Wim 2;542;546;706;960/1;960/3;523;Re 13</t>
+  </si>
+  <si>
+    <t>2131981-9</t>
+  </si>
+  <si>
+    <t>Serija "Materialy k istorii Udmurtii"</t>
+  </si>
+  <si>
+    <t>Inst</t>
+  </si>
+  <si>
+    <t>Iževsk</t>
+  </si>
+  <si>
+    <t>193319-X</t>
+  </si>
+  <si>
+    <t>2517461-7</t>
+  </si>
+  <si>
+    <t>Eesti keele ruum</t>
+  </si>
+  <si>
+    <t>TLÜ Kirjastus</t>
+  </si>
+  <si>
+    <t>1736-6437</t>
+  </si>
+  <si>
+    <t>2517497-6</t>
+  </si>
+  <si>
+    <t>Sõnalava</t>
+  </si>
+  <si>
+    <t>1406-9636</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 2002 -</t>
+  </si>
+  <si>
+    <t>2138494-0</t>
+  </si>
+  <si>
+    <t>EKLA töid kirjandusest ja kultuuriloost</t>
+  </si>
+  <si>
+    <t>1406-7838</t>
+  </si>
+  <si>
+    <t>1.2002 -</t>
+  </si>
+  <si>
+    <t>2145209-X</t>
+  </si>
+  <si>
+    <t>Ex fontibus archivi historici Estoniae</t>
+  </si>
+  <si>
+    <t>Rahvusarhiiv;Eesti Ajalooarhiiv</t>
+  </si>
+  <si>
+    <t>[Tartu];Tartu</t>
+  </si>
+  <si>
+    <t>1736-0811</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>1.2003 -</t>
+  </si>
+  <si>
+    <t>2531782-9</t>
+  </si>
+  <si>
+    <t>Värske Rõhk</t>
+  </si>
+  <si>
+    <t>MTÜ Värske Rõhk</t>
+  </si>
+  <si>
+    <t>1736-2954</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 2009,1 (kevad)-2010, 4 (talv) = 17-24 ; Nr. 25 (kevad 2011)-</t>
+  </si>
+  <si>
+    <t>Eesti arvudes</t>
+  </si>
+  <si>
+    <t>Statistikaamet</t>
+  </si>
+  <si>
+    <t>2003 - 2004; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>1448593-X</t>
+  </si>
+  <si>
+    <t>Eesti Kongress</t>
+  </si>
+  <si>
+    <t>est;rus;eng</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1990 -</t>
+  </si>
+  <si>
+    <t>1451127-7</t>
+  </si>
+  <si>
+    <t>Steinbrücke</t>
+  </si>
+  <si>
+    <t>ger</t>
+  </si>
+  <si>
+    <t>1406-3697</t>
+  </si>
+  <si>
+    <t>1.1998[?]</t>
+  </si>
+  <si>
+    <t>1452124-6</t>
+  </si>
+  <si>
+    <t>Acta historica Tallinnensia</t>
+  </si>
+  <si>
+    <t>Teaduste Akadeemia Kirjastus</t>
+  </si>
+  <si>
+    <t>est;eng;ger</t>
+  </si>
+  <si>
+    <t>1406-2925</t>
+  </si>
+  <si>
+    <t>1.1997 -</t>
+  </si>
+  <si>
+    <t>2158193-9</t>
+  </si>
+  <si>
+    <t>d;rb;fp</t>
+  </si>
+  <si>
+    <t>Germanistik in Tallinn</t>
+  </si>
+  <si>
+    <t>TPÜ Kirjastus</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>H. [1.]2000; 2.2002 - 3.2003; 4.2007 - 5.2007; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>2159488-0</t>
+  </si>
+  <si>
+    <t>Acta et Commentationes Collegii Narovensis</t>
+  </si>
+  <si>
+    <t>Tartu Ülikooli Narva Kolledž</t>
+  </si>
+  <si>
+    <t>Narva</t>
+  </si>
+  <si>
+    <t>est;rus;ger</t>
+  </si>
+  <si>
+    <t>1406-8257</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1.2002 -</t>
+  </si>
+  <si>
+    <t>2160027-2</t>
+  </si>
+  <si>
+    <t>Setumaa kogumik</t>
+  </si>
+  <si>
+    <t>1736-1168</t>
+  </si>
+  <si>
+    <t>2160629-8</t>
+  </si>
+  <si>
+    <t>Eesti inimarengu aruanne</t>
+  </si>
+  <si>
+    <t>1406-5398</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 2001 -</t>
+  </si>
+  <si>
+    <t>2549979-8</t>
+  </si>
+  <si>
+    <t>Jõhvi Muuseumi Seltsi toimetised</t>
+  </si>
+  <si>
+    <t>Jõhvi</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 4.2007 -</t>
+  </si>
+  <si>
+    <t>2550257-8</t>
+  </si>
+  <si>
+    <t>Etüüde nüüdiskultuurist</t>
+  </si>
+  <si>
+    <t>Tartu Ülikooli Kirjastus;Eesti Kirjandusmuuseumi kultuuri- ja kirjandusteooria töörühm [[2009]]</t>
+  </si>
+  <si>
+    <t>Tartu;Tallin</t>
+  </si>
+  <si>
+    <t>1736-8251</t>
+  </si>
+  <si>
+    <t>1.2009 -</t>
+  </si>
+  <si>
+    <t>1459728-7</t>
+  </si>
+  <si>
+    <t>Eesti eriala- ja teadusraamatukogud</t>
+  </si>
+  <si>
+    <t>1997(1998) - 2004(2005); damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>2550957-3</t>
+  </si>
+  <si>
+    <t>Eesti ja soome-ugri keeleteaduse ajakiri</t>
+  </si>
+  <si>
+    <t>1736-8987</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>1.2010 -</t>
+  </si>
+  <si>
     <t>1a</t>
   </si>
   <si>
-    <t>570191-0</t>
-  </si>
-  <si>
-    <t>Õpetatud Eesti Seltsi aastaraamat</t>
-  </si>
-  <si>
-    <t>Mattiesen</t>
-  </si>
-  <si>
-    <t>est;ger</t>
-  </si>
-  <si>
-    <t>1406-8486</t>
-  </si>
-  <si>
-    <t>7,53;9,10</t>
-  </si>
-  <si>
-    <t>570200-8</t>
-  </si>
-  <si>
-    <t>1936(1938) - 1938(1940); 1988/93(1995) -</t>
-  </si>
-  <si>
-    <t>1211247-1</t>
-  </si>
-  <si>
-    <t>Estonia in figures</t>
-  </si>
-  <si>
-    <t>Statistical Office of Estonia</t>
-  </si>
-  <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>1406-1880</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>2150066-6</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1993(1994) - 2002</t>
-  </si>
-  <si>
-    <t>1007124-6</t>
-  </si>
-  <si>
-    <t>1.1934 - 16.1935[?]</t>
-  </si>
-  <si>
-    <t>1007976-2</t>
-  </si>
-  <si>
-    <t>Eesti Üliõpilaste Seltsi album</t>
-  </si>
-  <si>
-    <t>Eesti Üliõpilaste Seltsi Vanemategogu Kirjastus</t>
-  </si>
-  <si>
-    <t>Stockholm</t>
-  </si>
-  <si>
-    <t>1.1889 - 11.[ca.1939]; 12.1955 - 15.1970; 18.2000 -</t>
-  </si>
-  <si>
-    <t>1216242-5</t>
-  </si>
-  <si>
-    <t>Suomalainen valiosarja</t>
-  </si>
-  <si>
-    <t>Porvoo [u.a.]</t>
-  </si>
-  <si>
-    <t>3. Painos 9.1935 nachgewiesen</t>
-  </si>
-  <si>
-    <t>1232197-7</t>
-  </si>
-  <si>
-    <t>Estonica</t>
-  </si>
-  <si>
-    <t>Teaduste Akad. Kirjastus</t>
-  </si>
-  <si>
-    <t>1406-3565</t>
-  </si>
-  <si>
-    <t>440481-6</t>
-  </si>
-  <si>
-    <t>1990(1991) - 1997(1998); damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>251399-7</t>
-  </si>
-  <si>
-    <t>Litteraria</t>
-  </si>
-  <si>
-    <t>Eesti Kirjandusmuuseum</t>
-  </si>
-  <si>
-    <t>0234-7695</t>
-  </si>
-  <si>
-    <t>400;800</t>
-  </si>
-  <si>
-    <t>1.1984 -</t>
-  </si>
-  <si>
-    <t>1035300-8</t>
-  </si>
-  <si>
-    <t>Sõnasõel</t>
-  </si>
-  <si>
-    <t>1.1972 - 7.1986; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>1046525-X</t>
-  </si>
-  <si>
-    <t>Emakeele Seltsi toimetised</t>
-  </si>
-  <si>
-    <t>0233-9439</t>
-  </si>
-  <si>
-    <t>1311696-4</t>
-  </si>
-  <si>
-    <t>1.1958 - 19.1993</t>
-  </si>
-  <si>
-    <t>1067027-0</t>
-  </si>
-  <si>
-    <t>Kreutzwaldi Päevade Konverentsi ettekannete teesid</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 21.1977 - 33.1989</t>
-  </si>
-  <si>
-    <t>1291544-0</t>
-  </si>
-  <si>
-    <t>b;zt</t>
-  </si>
-  <si>
-    <t>Sõnumileht</t>
-  </si>
-  <si>
-    <t>070</t>
-  </si>
-  <si>
-    <t>7,53;26</t>
-  </si>
-  <si>
-    <t>2019949-1</t>
-  </si>
-  <si>
-    <t>1283188-8</t>
-  </si>
-  <si>
-    <t>1995,1(30.Okt.) - 2000,150(30.Juni) = Nr. 1-1444</t>
-  </si>
-  <si>
-    <t>2386790-5</t>
-  </si>
-  <si>
-    <t>Rahvakultuuri aastaraamat</t>
-  </si>
-  <si>
-    <t>Rahvakultuuri Arendus- ja Koolituskeskus</t>
-  </si>
-  <si>
-    <t>1736-1877</t>
-  </si>
-  <si>
-    <t>1997(1998) - 2004(2005)[?]</t>
-  </si>
-  <si>
-    <t>SL Õhtuleht</t>
-  </si>
-  <si>
-    <t>1406-1236</t>
-  </si>
-  <si>
-    <t>26;7,53</t>
-  </si>
-  <si>
-    <t>2511104-8</t>
-  </si>
-  <si>
-    <t>1386600-X;1291544-0</t>
-  </si>
-  <si>
-    <t>2000,150(3.Juli) - 2008,233(4.Okt.) = Nr. 16945-19459</t>
-  </si>
-  <si>
-    <t>2021978-7</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Euroinformer</t>
-  </si>
-  <si>
-    <t>1406-3891;1736-0668</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1998/99; 2000/01; 2003/04 -</t>
-  </si>
-  <si>
-    <t>1328641-9</t>
-  </si>
-  <si>
-    <t>Eesti raamatute üldnimestik</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>1918/23(1931) - 1937/39(1941)[?]</t>
-  </si>
-  <si>
-    <t>2042223-4</t>
-  </si>
-  <si>
-    <t>d;rg;mg</t>
-  </si>
-  <si>
-    <t>Tartu Ülikooli Eesti Keele Õppetooli toimetised</t>
-  </si>
-  <si>
-    <t>1406-0183</t>
-  </si>
-  <si>
-    <t>1.1995 -</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Mb 50</t>
-  </si>
-  <si>
-    <t>2416158-5</t>
-  </si>
-  <si>
-    <t>ENDC proceedings</t>
-  </si>
-  <si>
-    <t>University Press</t>
-  </si>
-  <si>
-    <t>1736-0242</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 7.2007 -</t>
-  </si>
-  <si>
-    <t>2417944-9</t>
-  </si>
-  <si>
-    <t>Dissertationes philosophicae Universitatis Tartuensis</t>
-  </si>
-  <si>
-    <t>Tartu Univ. Press</t>
-  </si>
-  <si>
-    <t>1406-9520</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>1.2001 -</t>
-  </si>
-  <si>
-    <t>2048168-8</t>
-  </si>
-  <si>
-    <t>Kuldne kaseleht</t>
-  </si>
-  <si>
-    <t>Liit</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1998 -</t>
-  </si>
-  <si>
-    <t>1339382-0</t>
-  </si>
-  <si>
-    <t>Ühistu</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>1.1937; 2.1939; 3.1993 - 4.1996; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>1343789-6</t>
-  </si>
-  <si>
-    <t>Issues in applied linguistics</t>
-  </si>
-  <si>
-    <t>Univ.</t>
-  </si>
-  <si>
-    <t>1024-610X</t>
-  </si>
-  <si>
-    <t>1.1995; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>2057865-9</t>
-  </si>
-  <si>
-    <t>Raamat on ...</t>
-  </si>
-  <si>
-    <t>Tallina Bibliofiilide Klubi</t>
-  </si>
-  <si>
-    <t>1406-9474</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>1.2000 - 4.2005[?]</t>
-  </si>
-  <si>
-    <t>2057988-3</t>
-  </si>
-  <si>
-    <t>Arter</t>
-  </si>
-  <si>
-    <t>2058015-0;2058017-4</t>
-  </si>
-  <si>
-    <t>27. November 1999-</t>
-  </si>
-  <si>
-    <t>Paar sammukest</t>
-  </si>
-  <si>
-    <t>1406-5428</t>
-  </si>
-  <si>
-    <t>13.1996 -</t>
-  </si>
-  <si>
-    <t>2071258-3</t>
-  </si>
-  <si>
-    <t>Acta semiotica Estica</t>
-  </si>
-  <si>
-    <t>Tartu Ülikooli Kirjastus</t>
-  </si>
-  <si>
-    <t>1406-9563</t>
-  </si>
-  <si>
-    <t>1.2001; 2.2005 -</t>
-  </si>
-  <si>
-    <t>2074782-2</t>
-  </si>
-  <si>
-    <t>Oma keel</t>
-  </si>
-  <si>
-    <t>Emakeele Selts</t>
-  </si>
-  <si>
-    <t>1406-6599</t>
-  </si>
-  <si>
-    <t>2000,1(He.) -</t>
-  </si>
-  <si>
-    <t>2452632-0</t>
-  </si>
-  <si>
-    <t>Dissertationes medicinae Universitatis Tartuensis</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>1.1991 -</t>
-  </si>
-  <si>
-    <t>2453799-8</t>
-  </si>
-  <si>
-    <t>d;mg</t>
-  </si>
-  <si>
-    <t>Eesti Rahvusraamatukogu toimetised</t>
-  </si>
-  <si>
-    <t>Eesti Rahvusraamatukogu</t>
-  </si>
-  <si>
-    <t>1406-3530</t>
-  </si>
-  <si>
-    <t>24,1;7,53</t>
-  </si>
-  <si>
-    <t>1.1990 -</t>
-  </si>
-  <si>
-    <t>2080842-2</t>
-  </si>
-  <si>
-    <t>Life in Estonia</t>
-  </si>
-  <si>
-    <t>Ambassador OÜ</t>
-  </si>
-  <si>
-    <t>1406-6793</t>
-  </si>
-  <si>
-    <t>300;330</t>
-  </si>
-  <si>
-    <t>[1.]2001; 2.2002 - 3.2003/04; 2005; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>2086170-9</t>
-  </si>
-  <si>
-    <t>Luulekevad</t>
-  </si>
-  <si>
-    <t>Eesti Luuleliit</t>
-  </si>
-  <si>
-    <t>7,53;FID-FINNUG-DE-7</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 2000 -</t>
-  </si>
-  <si>
-    <t>1385543-8</t>
-  </si>
-  <si>
-    <t>Sirp</t>
-  </si>
-  <si>
-    <t>Kirjastus Perioodika</t>
-  </si>
-  <si>
-    <t>7,44;7,53;26</t>
-  </si>
-  <si>
-    <t>1385535-9</t>
-  </si>
-  <si>
-    <t>50.1991,1(1.Jan.) - 53.1994,5(4.Febr.); 1997,13(4.Apr.) - ; auch mit durchgehender Nr.-Zählung</t>
-  </si>
-  <si>
-    <t>2103576-3</t>
-  </si>
-  <si>
-    <t>Urdu</t>
-  </si>
-  <si>
-    <t>Eesti Kirjanike Liit</t>
-  </si>
-  <si>
-    <t>[Erscheinungsort nicht ermittelbar]</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 3.2001 -</t>
-  </si>
-  <si>
-    <t>2105447-2</t>
-  </si>
-  <si>
-    <t>Kirjakeele teataja</t>
-  </si>
-  <si>
-    <t>Selts</t>
-  </si>
-  <si>
-    <t>[1.]1976/83(1985); 2.1993/2000(2000) -</t>
-  </si>
-  <si>
-    <t>2498048-1</t>
-  </si>
-  <si>
-    <t>Mõte &amp; mälu</t>
-  </si>
-  <si>
-    <t>Eesti Ekspressi Kirjastus</t>
-  </si>
-  <si>
-    <t>[Tallinn]</t>
-  </si>
-  <si>
-    <t>1.2007 -</t>
-  </si>
-  <si>
-    <t>2119800-7</t>
-  </si>
-  <si>
-    <t>Vihik</t>
-  </si>
-  <si>
-    <t>Bookmill Trükikoda ja Kirjastus</t>
-  </si>
-  <si>
-    <t>1406-751X</t>
-  </si>
-  <si>
-    <t>Nr. 1.2002 -</t>
-  </si>
-  <si>
-    <t>2205031-0</t>
-  </si>
-  <si>
-    <t>Eesti Rakenduslingvistika Ühingu aastaraamat</t>
-  </si>
-  <si>
-    <t>Eesti Keele Sihtasutus</t>
-  </si>
-  <si>
-    <t>1736-2563</t>
-  </si>
-  <si>
-    <t>1.2004(2005) -</t>
-  </si>
-  <si>
-    <t>2124739-0</t>
-  </si>
-  <si>
-    <t>Tartu Ülikooli Lõuna-Eesti keele- ja kultuuriuuringute keskuse aastaraamat</t>
-  </si>
-  <si>
-    <t>Tartu Ülikooli Lõuna-Eesti keele- ja kultuuriuuringute keskus</t>
-  </si>
-  <si>
-    <t>1406-8354</t>
-  </si>
-  <si>
-    <t>1.2000/01(2002) -</t>
-  </si>
-  <si>
-    <t>12;Mb 50</t>
-  </si>
-  <si>
-    <t>2205522-8</t>
-  </si>
-  <si>
-    <t>Eesti Rahva Muuseumi sari</t>
-  </si>
-  <si>
-    <t>1406-4022</t>
-  </si>
-  <si>
-    <t>1.1998 -</t>
-  </si>
-  <si>
-    <t>2205543-5</t>
-  </si>
-  <si>
-    <t>d;rg</t>
-  </si>
-  <si>
-    <t>Collegium litterarum</t>
-  </si>
-  <si>
-    <t>Eesti Teaduste Akad., Underi ja Tuglase Kirjanduskeskus;Tartu Ülikooli Kirjanduse ja Rahvaluule Osakond</t>
-  </si>
-  <si>
-    <t>Tallinn;Tartu</t>
-  </si>
-  <si>
-    <t>1406-7269</t>
-  </si>
-  <si>
-    <t>2205557-5</t>
-  </si>
-  <si>
-    <t>d;ru;mg</t>
-  </si>
-  <si>
-    <t>Eesti mõttelugu</t>
-  </si>
-  <si>
-    <t>Ilmamaa</t>
-  </si>
-  <si>
-    <t>1024-1604</t>
-  </si>
-  <si>
-    <t>2206352-3</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>b;nl</t>
-  </si>
-  <si>
-    <t>Eesti Rakenduslingvistika Ühing (ERÜ)</t>
-  </si>
-  <si>
-    <t>2228-0677</t>
-  </si>
-  <si>
-    <t>1 (2004) ; 1 (2005)-</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2206352;https://www.ceeol.com/search/journal-detail?id=222;https://nl.zugang.nationallizenzen.de/han/3ca6f472-81ae-ddf1-00e9-37a0f7f930d6</t>
-  </si>
-  <si>
-    <t>KF;NL</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>1a;3;8;9;12;18;19;M 347;20;26;28;29;1102;946;84;89;90;861;95;Mh 39;355;898;155;384;Aug 4;37;473;517;521;547;703;705;739;824;573;150;551;552;Lün 4;Wim 2;542;546;706;960/1;960/3;523;Re 13</t>
-  </si>
-  <si>
-    <t>2131981-9</t>
-  </si>
-  <si>
-    <t>Serija "Materialy k istorii Udmurtii"</t>
-  </si>
-  <si>
-    <t>Inst</t>
-  </si>
-  <si>
-    <t>Iževsk</t>
-  </si>
-  <si>
-    <t>193319-X</t>
-  </si>
-  <si>
-    <t>2517461-7</t>
-  </si>
-  <si>
-    <t>Eesti keele ruum</t>
-  </si>
-  <si>
-    <t>TLÜ Kirjastus</t>
-  </si>
-  <si>
-    <t>1736-6437</t>
-  </si>
-  <si>
-    <t>2517497-6</t>
-  </si>
-  <si>
-    <t>Sõnalava</t>
-  </si>
-  <si>
-    <t>1406-9636</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 2002 -</t>
-  </si>
-  <si>
-    <t>2138494-0</t>
-  </si>
-  <si>
-    <t>EKLA töid kirjandusest ja kultuuriloost</t>
-  </si>
-  <si>
-    <t>1406-7838</t>
-  </si>
-  <si>
-    <t>1.2002 -</t>
-  </si>
-  <si>
-    <t>2145209-X</t>
-  </si>
-  <si>
-    <t>Ex fontibus archivi historici Estoniae</t>
-  </si>
-  <si>
-    <t>Rahvusarhiiv;Eesti Ajalooarhiiv</t>
-  </si>
-  <si>
-    <t>[Tartu];Tartu</t>
-  </si>
-  <si>
-    <t>1736-0811</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>1.2003 -</t>
-  </si>
-  <si>
-    <t>2531782-9</t>
-  </si>
-  <si>
-    <t>Värske Rõhk</t>
-  </si>
-  <si>
-    <t>MTÜ Värske Rõhk</t>
-  </si>
-  <si>
-    <t>1736-2954</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 2009,1 (kevad)-2010, 4 (talv) = 17-24 ; Nr. 25 (kevad 2011)-</t>
-  </si>
-  <si>
-    <t>Eesti arvudes</t>
-  </si>
-  <si>
-    <t>Statistikaamet</t>
-  </si>
-  <si>
-    <t>2003 - 2004; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>1448593-X</t>
-  </si>
-  <si>
-    <t>Eesti Kongress</t>
-  </si>
-  <si>
-    <t>est;rus;eng</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1990 -</t>
-  </si>
-  <si>
-    <t>1451127-7</t>
-  </si>
-  <si>
-    <t>Steinbrücke</t>
-  </si>
-  <si>
-    <t>ger</t>
-  </si>
-  <si>
-    <t>1406-3697</t>
-  </si>
-  <si>
-    <t>1.1998[?]</t>
-  </si>
-  <si>
-    <t>1452124-6</t>
-  </si>
-  <si>
-    <t>Acta historica Tallinnensia</t>
-  </si>
-  <si>
-    <t>Teaduste Akadeemia Kirjastus</t>
-  </si>
-  <si>
-    <t>est;eng;ger</t>
-  </si>
-  <si>
-    <t>1406-2925</t>
-  </si>
-  <si>
-    <t>1.1997 -</t>
-  </si>
-  <si>
-    <t>2158193-9</t>
-  </si>
-  <si>
-    <t>d;rb;fp</t>
-  </si>
-  <si>
-    <t>Germanistik in Tallinn</t>
-  </si>
-  <si>
-    <t>TPÜ Kirjastus</t>
-  </si>
-  <si>
-    <t>830</t>
-  </si>
-  <si>
-    <t>H. [1.]2000; 2.2002 - 3.2003; 4.2007 - 5.2007; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>2159488-0</t>
-  </si>
-  <si>
-    <t>Acta et Commentationes Collegii Narovensis</t>
-  </si>
-  <si>
-    <t>Tartu Ülikooli Narva Kolledž</t>
-  </si>
-  <si>
-    <t>Narva</t>
-  </si>
-  <si>
-    <t>est;rus;ger</t>
-  </si>
-  <si>
-    <t>1406-8257</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1.2002 -</t>
-  </si>
-  <si>
-    <t>2160027-2</t>
-  </si>
-  <si>
-    <t>Setumaa kogumik</t>
-  </si>
-  <si>
-    <t>1736-1168</t>
-  </si>
-  <si>
-    <t>2160629-8</t>
-  </si>
-  <si>
-    <t>Eesti inimarengu aruanne</t>
-  </si>
-  <si>
-    <t>1406-5398</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 2001 -</t>
-  </si>
-  <si>
-    <t>2549979-8</t>
-  </si>
-  <si>
-    <t>Jõhvi Muuseumi Seltsi toimetised</t>
-  </si>
-  <si>
-    <t>Jõhvi</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 4.2007 -</t>
-  </si>
-  <si>
-    <t>2550257-8</t>
-  </si>
-  <si>
-    <t>Etüüde nüüdiskultuurist</t>
-  </si>
-  <si>
-    <t>Tartu Ülikooli Kirjastus;Eesti Kirjandusmuuseumi kultuuri- ja kirjandusteooria töörühm [[2009]]</t>
-  </si>
-  <si>
-    <t>Tartu;Tallin</t>
-  </si>
-  <si>
-    <t>1736-8251</t>
-  </si>
-  <si>
-    <t>1.2009 -</t>
-  </si>
-  <si>
-    <t>1459728-7</t>
-  </si>
-  <si>
-    <t>Eesti eriala- ja teadusraamatukogud</t>
-  </si>
-  <si>
-    <t>1997(1998) - 2004(2005); damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>2550957-3</t>
-  </si>
-  <si>
-    <t>Eesti ja soome-ugri keeleteaduse ajakiri</t>
-  </si>
-  <si>
-    <t>1736-8987</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>1.2010 -</t>
-  </si>
-  <si>
     <t>2239922-7</t>
   </si>
   <si>
@@ -1411,7 +1414,10 @@
     <t>1.2006 -</t>
   </si>
   <si>
-    <t>1a;6;9;12;14;Mb 50;364</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1a;6;9;12;14;700;Mb 50;364</t>
   </si>
   <si>
     <t>1461590-3</t>
@@ -3796,7 +3802,7 @@
         <v>32</v>
       </c>
       <c r="X20" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="Y20" t="s">
         <v>153</v>
@@ -8342,27 +8348,27 @@
         <v>38</v>
       </c>
       <c r="Y79" t="s">
-        <v>153</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
       </c>
       <c r="C80" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D80" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E80" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F80" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G80" t="s">
         <v>410</v>
@@ -8371,7 +8377,7 @@
         <v>32</v>
       </c>
       <c r="I80" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J80" t="s">
         <v>107</v>
@@ -8398,7 +8404,7 @@
         <v>32</v>
       </c>
       <c r="R80" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S80" t="s">
         <v>32</v>
@@ -8416,15 +8422,15 @@
         <v>32</v>
       </c>
       <c r="X80" t="s">
-        <v>238</v>
+        <v>466</v>
       </c>
       <c r="Y80" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -8433,7 +8439,7 @@
         <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E81" t="s">
         <v>58</v>
@@ -8442,16 +8448,16 @@
         <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H81" t="s">
         <v>32</v>
       </c>
       <c r="I81" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="J81" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K81" t="s">
         <v>79</v>
@@ -8472,10 +8478,10 @@
         <v>32</v>
       </c>
       <c r="Q81" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="R81" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="S81" t="s">
         <v>32</v>
@@ -8501,7 +8507,7 @@
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -8510,7 +8516,7 @@
         <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E82" t="s">
         <v>42</v>
@@ -8578,7 +8584,7 @@
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -8587,7 +8593,7 @@
         <v>124</v>
       </c>
       <c r="D83" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E83" t="s">
         <v>189</v>
@@ -8655,16 +8661,16 @@
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D84" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E84" t="s">
         <v>117</v>
@@ -8679,7 +8685,7 @@
         <v>32</v>
       </c>
       <c r="I84" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J84" t="s">
         <v>255</v>
@@ -8706,7 +8712,7 @@
         <v>32</v>
       </c>
       <c r="R84" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="S84" t="s">
         <v>32</v>
@@ -8732,7 +8738,7 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -8741,10 +8747,10 @@
         <v>27</v>
       </c>
       <c r="D85" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E85" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F85" t="s">
         <v>76</v>
@@ -8756,7 +8762,7 @@
         <v>32</v>
       </c>
       <c r="I85" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="J85" t="s">
         <v>62</v>
@@ -8809,7 +8815,7 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B86" t="s">
         <v>26</v>
@@ -8818,10 +8824,10 @@
         <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E86" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F86" t="s">
         <v>30</v>
@@ -8833,7 +8839,7 @@
         <v>32</v>
       </c>
       <c r="I86" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="J86" t="s">
         <v>62</v>
@@ -8860,7 +8866,7 @@
         <v>32</v>
       </c>
       <c r="R86" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="S86" t="s">
         <v>32</v>
@@ -8886,7 +8892,7 @@
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
@@ -8895,7 +8901,7 @@
         <v>124</v>
       </c>
       <c r="D87" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E87" t="s">
         <v>189</v>
@@ -8910,7 +8916,7 @@
         <v>32</v>
       </c>
       <c r="I87" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J87" t="s">
         <v>62</v>
@@ -8963,7 +8969,7 @@
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B88" t="s">
         <v>26</v>
@@ -8972,10 +8978,10 @@
         <v>124</v>
       </c>
       <c r="D88" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E88" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F88" t="s">
         <v>76</v>
@@ -8987,7 +8993,7 @@
         <v>32</v>
       </c>
       <c r="I88" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J88" t="s">
         <v>62</v>
@@ -9014,7 +9020,7 @@
         <v>32</v>
       </c>
       <c r="R88" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="S88" t="s">
         <v>32</v>
@@ -9040,7 +9046,7 @@
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
@@ -9049,7 +9055,7 @@
         <v>124</v>
       </c>
       <c r="D89" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E89" t="s">
         <v>243</v>
@@ -9064,7 +9070,7 @@
         <v>32</v>
       </c>
       <c r="I89" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="J89" t="s">
         <v>62</v>
@@ -9091,7 +9097,7 @@
         <v>32</v>
       </c>
       <c r="R89" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S89" t="s">
         <v>32</v>
@@ -9117,7 +9123,7 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
@@ -9126,10 +9132,10 @@
         <v>124</v>
       </c>
       <c r="D90" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E90" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F90" t="s">
         <v>30</v>
@@ -9141,7 +9147,7 @@
         <v>32</v>
       </c>
       <c r="I90" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="J90" t="s">
         <v>62</v>
@@ -9168,7 +9174,7 @@
         <v>32</v>
       </c>
       <c r="R90" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S90" t="s">
         <v>32</v>
@@ -9194,7 +9200,7 @@
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B91" t="s">
         <v>363</v>
@@ -9206,10 +9212,10 @@
         <v>280</v>
       </c>
       <c r="E91" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F91" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G91" t="s">
         <v>31</v>
@@ -9248,10 +9254,10 @@
         <v>251</v>
       </c>
       <c r="S91" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="T91" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="U91" t="s">
         <v>238</v>
@@ -9263,15 +9269,15 @@
         <v>32</v>
       </c>
       <c r="X91" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Y91" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
@@ -9280,13 +9286,13 @@
         <v>124</v>
       </c>
       <c r="D92" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E92" t="s">
         <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G92" t="s">
         <v>32</v>
@@ -9298,7 +9304,7 @@
         <v>32</v>
       </c>
       <c r="J92" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K92" t="s">
         <v>52</v>
@@ -9322,7 +9328,7 @@
         <v>32</v>
       </c>
       <c r="R92" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="S92" t="s">
         <v>32</v>
@@ -9348,7 +9354,7 @@
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
@@ -9357,10 +9363,10 @@
         <v>124</v>
       </c>
       <c r="D93" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E93" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F93" t="s">
         <v>320</v>
@@ -9399,7 +9405,7 @@
         <v>32</v>
       </c>
       <c r="R93" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="S93" t="s">
         <v>32</v>
@@ -9425,7 +9431,7 @@
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B94" t="s">
         <v>26</v>
@@ -9434,7 +9440,7 @@
         <v>124</v>
       </c>
       <c r="D94" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E94" t="s">
         <v>281</v>
@@ -9449,7 +9455,7 @@
         <v>32</v>
       </c>
       <c r="I94" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J94" t="s">
         <v>423</v>
@@ -9476,7 +9482,7 @@
         <v>32</v>
       </c>
       <c r="R94" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="S94" t="s">
         <v>32</v>
@@ -9511,10 +9517,10 @@
         <v>27</v>
       </c>
       <c r="D95" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E95" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F95" t="s">
         <v>76</v>
@@ -9526,7 +9532,7 @@
         <v>32</v>
       </c>
       <c r="I95" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J95" t="s">
         <v>112</v>
@@ -9553,7 +9559,7 @@
         <v>131</v>
       </c>
       <c r="R95" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="S95" t="s">
         <v>32</v>
@@ -9579,7 +9585,7 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B96" t="s">
         <v>26</v>
@@ -9588,7 +9594,7 @@
         <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E96" t="s">
         <v>106</v>
@@ -9603,7 +9609,7 @@
         <v>32</v>
       </c>
       <c r="I96" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J96" t="s">
         <v>43</v>
@@ -9627,10 +9633,10 @@
         <v>32</v>
       </c>
       <c r="Q96" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="R96" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="S96" t="s">
         <v>32</v>
@@ -9651,27 +9657,27 @@
         <v>38</v>
       </c>
       <c r="Y96" t="s">
-        <v>153</v>
+        <v>458</v>
       </c>
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B97" t="s">
         <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D97" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E97" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F97" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G97" t="s">
         <v>31</v>
@@ -9680,13 +9686,13 @@
         <v>32</v>
       </c>
       <c r="I97" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J97" t="s">
         <v>78</v>
       </c>
       <c r="K97" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="L97" t="s">
         <v>32</v>
@@ -9707,7 +9713,7 @@
         <v>32</v>
       </c>
       <c r="R97" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="S97" t="s">
         <v>32</v>
@@ -9733,7 +9739,7 @@
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B98" t="s">
         <v>26</v>
@@ -9742,10 +9748,10 @@
         <v>124</v>
       </c>
       <c r="D98" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E98" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F98" t="s">
         <v>30</v>
@@ -9784,7 +9790,7 @@
         <v>32</v>
       </c>
       <c r="R98" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="S98" t="s">
         <v>32</v>
@@ -9810,7 +9816,7 @@
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B99" t="s">
         <v>26</v>
@@ -9819,10 +9825,10 @@
         <v>27</v>
       </c>
       <c r="D99" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E99" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F99" t="s">
         <v>76</v>
@@ -9837,7 +9843,7 @@
         <v>32</v>
       </c>
       <c r="J99" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K99" t="s">
         <v>52</v>
@@ -9887,7 +9893,7 @@
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B100" t="s">
         <v>26</v>
@@ -9896,7 +9902,7 @@
         <v>124</v>
       </c>
       <c r="D100" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E100" t="s">
         <v>42</v>
@@ -9911,10 +9917,10 @@
         <v>32</v>
       </c>
       <c r="I100" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="J100" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K100" t="s">
         <v>52</v>
@@ -9938,7 +9944,7 @@
         <v>32</v>
       </c>
       <c r="R100" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="S100" t="s">
         <v>32</v>
@@ -9964,7 +9970,7 @@
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B101" t="s">
         <v>26</v>
@@ -9973,10 +9979,10 @@
         <v>124</v>
       </c>
       <c r="D101" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E101" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F101" t="s">
         <v>30</v>
@@ -10015,7 +10021,7 @@
         <v>32</v>
       </c>
       <c r="R101" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="S101" t="s">
         <v>32</v>
@@ -10041,7 +10047,7 @@
     </row>
     <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B102" t="s">
         <v>26</v>
@@ -10050,7 +10056,7 @@
         <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E102" t="s">
         <v>42</v>
@@ -10065,7 +10071,7 @@
         <v>32</v>
       </c>
       <c r="I102" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="J102" t="s">
         <v>51</v>
@@ -10092,7 +10098,7 @@
         <v>32</v>
       </c>
       <c r="R102" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="S102" t="s">
         <v>32</v>
@@ -10118,7 +10124,7 @@
     </row>
     <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B103" t="s">
         <v>26</v>
@@ -10127,10 +10133,10 @@
         <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E103" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F103" t="s">
         <v>76</v>
@@ -10142,7 +10148,7 @@
         <v>32</v>
       </c>
       <c r="I103" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="J103" t="s">
         <v>70</v>
@@ -10195,7 +10201,7 @@
     </row>
     <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B104" t="s">
         <v>26</v>
@@ -10204,10 +10210,10 @@
         <v>124</v>
       </c>
       <c r="D104" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E104" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F104" t="s">
         <v>76</v>
@@ -10219,7 +10225,7 @@
         <v>32</v>
       </c>
       <c r="I104" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J104" t="s">
         <v>62</v>
@@ -10246,7 +10252,7 @@
         <v>32</v>
       </c>
       <c r="R104" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S104" t="s">
         <v>32</v>
@@ -10272,7 +10278,7 @@
     </row>
     <row r="105" spans="1:25">
       <c r="A105" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B105" t="s">
         <v>26</v>
@@ -10281,7 +10287,7 @@
         <v>124</v>
       </c>
       <c r="D105" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E105" t="s">
         <v>427</v>
@@ -10299,7 +10305,7 @@
         <v>32</v>
       </c>
       <c r="J105" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K105" t="s">
         <v>52</v>
@@ -10323,7 +10329,7 @@
         <v>32</v>
       </c>
       <c r="R105" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="S105" t="s">
         <v>32</v>
@@ -10349,7 +10355,7 @@
     </row>
     <row r="106" spans="1:25">
       <c r="A106" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B106" t="s">
         <v>26</v>
@@ -10358,10 +10364,10 @@
         <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E106" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F106" t="s">
         <v>30</v>
@@ -10376,7 +10382,7 @@
         <v>32</v>
       </c>
       <c r="J106" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K106" t="s">
         <v>52</v>
@@ -10426,7 +10432,7 @@
     </row>
     <row r="107" spans="1:25">
       <c r="A107" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B107" t="s">
         <v>26</v>
@@ -10435,7 +10441,7 @@
         <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E107" t="s">
         <v>164</v>
@@ -10450,7 +10456,7 @@
         <v>32</v>
       </c>
       <c r="I107" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J107" t="s">
         <v>167</v>
@@ -10477,7 +10483,7 @@
         <v>32</v>
       </c>
       <c r="R107" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="S107" t="s">
         <v>32</v>
@@ -10503,7 +10509,7 @@
     </row>
     <row r="108" spans="1:25">
       <c r="A108" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B108" t="s">
         <v>26</v>
@@ -10512,13 +10518,13 @@
         <v>124</v>
       </c>
       <c r="D108" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E108" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F108" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G108" t="s">
         <v>32</v>
@@ -10554,7 +10560,7 @@
         <v>32</v>
       </c>
       <c r="R108" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="S108" t="s">
         <v>32</v>
@@ -10580,7 +10586,7 @@
     </row>
     <row r="109" spans="1:25">
       <c r="A109" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B109" t="s">
         <v>26</v>
@@ -10589,13 +10595,13 @@
         <v>124</v>
       </c>
       <c r="D109" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E109" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F109" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="G109" t="s">
         <v>32</v>
@@ -10607,7 +10613,7 @@
         <v>32</v>
       </c>
       <c r="J109" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="K109" t="s">
         <v>52</v>
@@ -10631,7 +10637,7 @@
         <v>32</v>
       </c>
       <c r="R109" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="S109" t="s">
         <v>32</v>
@@ -10657,7 +10663,7 @@
     </row>
     <row r="110" spans="1:25">
       <c r="A110" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B110" t="s">
         <v>363</v>
@@ -10681,7 +10687,7 @@
         <v>32</v>
       </c>
       <c r="I110" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="J110" t="s">
         <v>120</v>
@@ -10708,13 +10714,13 @@
         <v>32</v>
       </c>
       <c r="R110" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="S110" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="T110" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="U110" t="s">
         <v>32</v>
@@ -10734,7 +10740,7 @@
     </row>
     <row r="111" spans="1:25">
       <c r="A111" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B111" t="s">
         <v>26</v>
@@ -10743,7 +10749,7 @@
         <v>124</v>
       </c>
       <c r="D111" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E111" t="s">
         <v>379</v>
@@ -10758,7 +10764,7 @@
         <v>32</v>
       </c>
       <c r="I111" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="J111" t="s">
         <v>43</v>
@@ -10785,7 +10791,7 @@
         <v>32</v>
       </c>
       <c r="R111" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="S111" t="s">
         <v>32</v>
@@ -10811,7 +10817,7 @@
     </row>
     <row r="112" spans="1:25">
       <c r="A112" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B112" t="s">
         <v>363</v>
@@ -10820,10 +10826,10 @@
         <v>27</v>
       </c>
       <c r="D112" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E112" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F112" t="s">
         <v>76</v>
@@ -10835,10 +10841,10 @@
         <v>32</v>
       </c>
       <c r="I112" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="J112" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K112" t="s">
         <v>79</v>
@@ -10862,13 +10868,13 @@
         <v>32</v>
       </c>
       <c r="R112" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="S112" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="T112" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="U112" t="s">
         <v>238</v>
@@ -10880,15 +10886,15 @@
         <v>32</v>
       </c>
       <c r="X112" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="Y112" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="113" spans="1:25">
       <c r="A113" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B113" t="s">
         <v>26</v>
@@ -10897,10 +10903,10 @@
         <v>124</v>
       </c>
       <c r="D113" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E113" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F113" t="s">
         <v>76</v>
@@ -10912,10 +10918,10 @@
         <v>32</v>
       </c>
       <c r="I113" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="J113" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K113" t="s">
         <v>52</v>
@@ -10939,7 +10945,7 @@
         <v>32</v>
       </c>
       <c r="R113" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="S113" t="s">
         <v>32</v>
@@ -10965,7 +10971,7 @@
     </row>
     <row r="114" spans="1:25">
       <c r="A114" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B114" t="s">
         <v>363</v>
@@ -10989,7 +10995,7 @@
         <v>32</v>
       </c>
       <c r="I114" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="J114" t="s">
         <v>456</v>
@@ -11019,10 +11025,10 @@
         <v>457</v>
       </c>
       <c r="S114" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="T114" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="U114" t="s">
         <v>32</v>
@@ -11034,15 +11040,15 @@
         <v>32</v>
       </c>
       <c r="X114" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Y114" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="115" spans="1:25">
       <c r="A115" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B115" t="s">
         <v>26</v>
@@ -11051,10 +11057,10 @@
         <v>124</v>
       </c>
       <c r="D115" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E115" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F115" t="s">
         <v>30</v>
@@ -11093,7 +11099,7 @@
         <v>32</v>
       </c>
       <c r="R115" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="S115" t="s">
         <v>32</v>
@@ -11119,7 +11125,7 @@
     </row>
     <row r="116" spans="1:25">
       <c r="A116" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B116" t="s">
         <v>26</v>
@@ -11128,10 +11134,10 @@
         <v>124</v>
       </c>
       <c r="D116" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E116" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F116" t="s">
         <v>30</v>
@@ -11143,7 +11149,7 @@
         <v>32</v>
       </c>
       <c r="I116" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="J116" t="s">
         <v>151</v>
@@ -11167,10 +11173,10 @@
         <v>32</v>
       </c>
       <c r="Q116" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="R116" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="S116" t="s">
         <v>32</v>
@@ -11196,7 +11202,7 @@
     </row>
     <row r="117" spans="1:25">
       <c r="A117" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B117" t="s">
         <v>26</v>
@@ -11205,13 +11211,13 @@
         <v>124</v>
       </c>
       <c r="D117" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E117" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F117" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G117" t="s">
         <v>31</v>
@@ -11247,7 +11253,7 @@
         <v>32</v>
       </c>
       <c r="R117" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="S117" t="s">
         <v>32</v>
@@ -11273,7 +11279,7 @@
     </row>
     <row r="118" spans="1:25">
       <c r="A118" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B118" t="s">
         <v>26</v>
@@ -11282,10 +11288,10 @@
         <v>124</v>
       </c>
       <c r="D118" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E118" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F118" t="s">
         <v>118</v>
@@ -11324,7 +11330,7 @@
         <v>32</v>
       </c>
       <c r="R118" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="S118" t="s">
         <v>32</v>
@@ -11350,7 +11356,7 @@
     </row>
     <row r="119" spans="1:25">
       <c r="A119" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B119" t="s">
         <v>26</v>
@@ -11359,7 +11365,7 @@
         <v>124</v>
       </c>
       <c r="D119" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E119" t="s">
         <v>338</v>
@@ -11401,7 +11407,7 @@
         <v>32</v>
       </c>
       <c r="R119" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="S119" t="s">
         <v>32</v>
